--- a/export/Pacjenci.xlsx
+++ b/export/Pacjenci.xlsx
@@ -38,7 +38,7 @@
     <t>00-001</t>
   </si>
   <si>
-    <t>ul. Lipowa 23</t>
+    <t>ul. Lipowa 50</t>
   </si>
   <si>
     <t>Strzeżymir</t>
